--- a/Jasper Files/data/addNP/addNP-50pod-20pol.xlsx
+++ b/Jasper Files/data/addNP/addNP-50pod-20pol.xlsx
@@ -516,28 +516,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01625064387917519</v>
+        <v>0.01289825199637562</v>
       </c>
       <c r="C2">
-        <v>253231</v>
+        <v>107772</v>
       </c>
       <c r="D2">
-        <v>324975</v>
+        <v>175884</v>
       </c>
       <c r="E2">
-        <v>71744</v>
+        <v>68112</v>
       </c>
       <c r="F2">
-        <v>0.002953473478555679</v>
+        <v>0.0194022300420329</v>
       </c>
       <c r="G2">
-        <v>16737</v>
+        <v>17867</v>
       </c>
       <c r="H2">
-        <v>35462</v>
+        <v>36304</v>
       </c>
       <c r="I2">
-        <v>18725</v>
+        <v>18437</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -545,28 +545,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01239310950040817</v>
+        <v>0.01374333002604544</v>
       </c>
       <c r="C3">
-        <v>224445</v>
+        <v>215682</v>
       </c>
       <c r="D3">
-        <v>295397</v>
+        <v>284002</v>
       </c>
       <c r="E3">
-        <v>70952</v>
+        <v>68320</v>
       </c>
       <c r="F3">
-        <v>0.002622161060571671</v>
+        <v>0.004261677036993206</v>
       </c>
       <c r="G3">
-        <v>15625</v>
+        <v>16899</v>
       </c>
       <c r="H3">
-        <v>34202</v>
+        <v>35477</v>
       </c>
       <c r="I3">
-        <v>18577</v>
+        <v>18578</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -574,25 +574,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.007162600755691528</v>
+        <v>0.008361983927898109</v>
       </c>
       <c r="C4">
-        <v>112148</v>
+        <v>108471</v>
       </c>
       <c r="D4">
-        <v>183964</v>
+        <v>174407</v>
       </c>
       <c r="E4">
-        <v>71816</v>
+        <v>65936</v>
       </c>
       <c r="F4">
-        <v>0.003299959003925323</v>
+        <v>0.0113308570580557</v>
       </c>
       <c r="G4">
-        <v>16073</v>
+        <v>16227</v>
       </c>
       <c r="H4">
-        <v>34798</v>
+        <v>34952</v>
       </c>
       <c r="I4">
         <v>18725</v>
@@ -603,28 +603,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01720607653260231</v>
+        <v>0.02827518701087683</v>
       </c>
       <c r="C5">
-        <v>198279</v>
+        <v>128254</v>
       </c>
       <c r="D5">
-        <v>272326</v>
+        <v>197342</v>
       </c>
       <c r="E5">
-        <v>74047</v>
+        <v>69088</v>
       </c>
       <c r="F5">
-        <v>0.004316303879022598</v>
+        <v>0.01792616699822247</v>
       </c>
       <c r="G5">
-        <v>15954</v>
+        <v>16556</v>
       </c>
       <c r="H5">
-        <v>34533</v>
+        <v>35281</v>
       </c>
       <c r="I5">
-        <v>18579</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -632,25 +632,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01714790984988213</v>
+        <v>0.0211152610136196</v>
       </c>
       <c r="C6">
-        <v>238786</v>
+        <v>131675</v>
       </c>
       <c r="D6">
-        <v>252695</v>
+        <v>199413</v>
       </c>
       <c r="E6">
-        <v>13909</v>
+        <v>67738</v>
       </c>
       <c r="F6">
-        <v>0.007481377571821213</v>
+        <v>0.0185465170070529</v>
       </c>
       <c r="G6">
-        <v>16425</v>
+        <v>16675</v>
       </c>
       <c r="H6">
-        <v>35150</v>
+        <v>35400</v>
       </c>
       <c r="I6">
         <v>18725</v>
@@ -661,25 +661,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01302137598395348</v>
+        <v>0.02437705092597753</v>
       </c>
       <c r="C7">
-        <v>246546</v>
+        <v>310002</v>
       </c>
       <c r="D7">
-        <v>318389</v>
+        <v>377082</v>
       </c>
       <c r="E7">
-        <v>71843</v>
+        <v>67080</v>
       </c>
       <c r="F7">
-        <v>0.003255318850278854</v>
+        <v>0.02000476303510368</v>
       </c>
       <c r="G7">
-        <v>16443</v>
+        <v>17059</v>
       </c>
       <c r="H7">
-        <v>35168</v>
+        <v>35784</v>
       </c>
       <c r="I7">
         <v>18725</v>
@@ -690,25 +690,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01381544768810272</v>
+        <v>0.02914177800994366</v>
       </c>
       <c r="C8">
-        <v>258077</v>
+        <v>416346</v>
       </c>
       <c r="D8">
-        <v>330375</v>
+        <v>482221</v>
       </c>
       <c r="E8">
-        <v>72298</v>
+        <v>65875</v>
       </c>
       <c r="F8">
-        <v>0.002895861864089966</v>
+        <v>0.01600827800575644</v>
       </c>
       <c r="G8">
-        <v>15913</v>
+        <v>15947</v>
       </c>
       <c r="H8">
-        <v>34638</v>
+        <v>34672</v>
       </c>
       <c r="I8">
         <v>18725</v>
@@ -719,28 +719,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.009440124034881592</v>
+        <v>0.01949232909828424</v>
       </c>
       <c r="C9">
-        <v>118943</v>
+        <v>145947</v>
       </c>
       <c r="D9">
-        <v>190695</v>
+        <v>211899</v>
       </c>
       <c r="E9">
-        <v>71752</v>
+        <v>65952</v>
       </c>
       <c r="F9">
-        <v>0.009161408990621567</v>
+        <v>0.01719762699212879</v>
       </c>
       <c r="G9">
-        <v>16263</v>
+        <v>16045</v>
       </c>
       <c r="H9">
-        <v>34842</v>
+        <v>34770</v>
       </c>
       <c r="I9">
-        <v>18579</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -748,25 +748,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01844295114278793</v>
+        <v>0.015905522974208</v>
       </c>
       <c r="C10">
-        <v>244698</v>
+        <v>89903</v>
       </c>
       <c r="D10">
-        <v>316938</v>
+        <v>158105</v>
       </c>
       <c r="E10">
-        <v>72240</v>
+        <v>68202</v>
       </c>
       <c r="F10">
-        <v>0.003193870186805725</v>
+        <v>0.01357968396041542</v>
       </c>
       <c r="G10">
-        <v>16563</v>
+        <v>16429</v>
       </c>
       <c r="H10">
-        <v>35288</v>
+        <v>35154</v>
       </c>
       <c r="I10">
         <v>18725</v>
@@ -777,28 +777,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01658783853054047</v>
+        <v>0.02185350807849318</v>
       </c>
       <c r="C11">
-        <v>246483</v>
+        <v>258489</v>
       </c>
       <c r="D11">
-        <v>318203</v>
+        <v>326809</v>
       </c>
       <c r="E11">
-        <v>71720</v>
+        <v>68320</v>
       </c>
       <c r="F11">
-        <v>0.003083981573581696</v>
+        <v>0.01649020391050726</v>
       </c>
       <c r="G11">
-        <v>15593</v>
+        <v>16515</v>
       </c>
       <c r="H11">
-        <v>34318</v>
+        <v>35095</v>
       </c>
       <c r="I11">
-        <v>18725</v>
+        <v>18580</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -806,25 +806,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.008045949041843414</v>
+        <v>0.02962640998885036</v>
       </c>
       <c r="C12">
-        <v>116969</v>
+        <v>96341</v>
       </c>
       <c r="D12">
-        <v>225913</v>
+        <v>337555</v>
       </c>
       <c r="E12">
-        <v>108944</v>
+        <v>241214</v>
       </c>
       <c r="F12">
-        <v>0.00318777933716774</v>
+        <v>0.01293246098794043</v>
       </c>
       <c r="G12">
-        <v>16041</v>
+        <v>16161</v>
       </c>
       <c r="H12">
-        <v>34766</v>
+        <v>34886</v>
       </c>
       <c r="I12">
         <v>18725</v>
@@ -835,28 +835,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.009370893239974976</v>
+        <v>0.01959842198994011</v>
       </c>
       <c r="C13">
-        <v>113601</v>
+        <v>205348</v>
       </c>
       <c r="D13">
-        <v>185659</v>
+        <v>271182</v>
       </c>
       <c r="E13">
-        <v>72058</v>
+        <v>65834</v>
       </c>
       <c r="F13">
-        <v>0.001992706209421158</v>
+        <v>0.01254484907258302</v>
       </c>
       <c r="G13">
-        <v>15913</v>
+        <v>16483</v>
       </c>
       <c r="H13">
-        <v>34493</v>
+        <v>35208</v>
       </c>
       <c r="I13">
-        <v>18580</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -864,28 +864,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01170500367879868</v>
+        <v>0.0188669259659946</v>
       </c>
       <c r="C14">
-        <v>105075</v>
+        <v>199816</v>
       </c>
       <c r="D14">
-        <v>179226</v>
+        <v>267608</v>
       </c>
       <c r="E14">
-        <v>74151</v>
+        <v>67792</v>
       </c>
       <c r="F14">
-        <v>0.003180660307407379</v>
+        <v>0.01616915909107774</v>
       </c>
       <c r="G14">
-        <v>16073</v>
+        <v>16579</v>
       </c>
       <c r="H14">
-        <v>34798</v>
+        <v>35158</v>
       </c>
       <c r="I14">
-        <v>18725</v>
+        <v>18579</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -893,25 +893,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01473015174269676</v>
+        <v>0.02999048004858196</v>
       </c>
       <c r="C15">
-        <v>227918</v>
+        <v>252599</v>
       </c>
       <c r="D15">
-        <v>300118</v>
+        <v>279349</v>
       </c>
       <c r="E15">
-        <v>72200</v>
+        <v>26750</v>
       </c>
       <c r="F15">
-        <v>0.003354437649250031</v>
+        <v>0.01111432199832052</v>
       </c>
       <c r="G15">
-        <v>16425</v>
+        <v>16387</v>
       </c>
       <c r="H15">
-        <v>35150</v>
+        <v>35112</v>
       </c>
       <c r="I15">
         <v>18725</v>
@@ -922,28 +922,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01853682845830917</v>
+        <v>0.03974823700264096</v>
       </c>
       <c r="C16">
-        <v>238423</v>
+        <v>323379</v>
       </c>
       <c r="D16">
-        <v>310209</v>
+        <v>323595</v>
       </c>
       <c r="E16">
-        <v>71786</v>
+        <v>216</v>
       </c>
       <c r="F16">
-        <v>0.003403335809707642</v>
+        <v>0.01201307401061058</v>
       </c>
       <c r="G16">
-        <v>16233</v>
+        <v>16035</v>
       </c>
       <c r="H16">
-        <v>34812</v>
+        <v>34760</v>
       </c>
       <c r="I16">
-        <v>18579</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -951,28 +951,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02238978445529938</v>
+        <v>0.01738658500835299</v>
       </c>
       <c r="C17">
-        <v>239170</v>
+        <v>101450</v>
       </c>
       <c r="D17">
-        <v>444642</v>
+        <v>168886</v>
       </c>
       <c r="E17">
-        <v>205472</v>
+        <v>67436</v>
       </c>
       <c r="F17">
-        <v>0.001948464661836624</v>
+        <v>0.01549377804622054</v>
       </c>
       <c r="G17">
-        <v>15561</v>
+        <v>16707</v>
       </c>
       <c r="H17">
-        <v>34138</v>
+        <v>35432</v>
       </c>
       <c r="I17">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -980,28 +980,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.007490672171115875</v>
+        <v>0.01344900904223323</v>
       </c>
       <c r="C18">
-        <v>114341</v>
+        <v>100467</v>
       </c>
       <c r="D18">
-        <v>186039</v>
+        <v>171389</v>
       </c>
       <c r="E18">
-        <v>71698</v>
+        <v>70922</v>
       </c>
       <c r="F18">
-        <v>0.002905786037445068</v>
+        <v>0.01560193800833076</v>
       </c>
       <c r="G18">
-        <v>16233</v>
+        <v>16323</v>
       </c>
       <c r="H18">
-        <v>34811</v>
+        <v>35048</v>
       </c>
       <c r="I18">
-        <v>18578</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1009,25 +1009,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0104694627225399</v>
+        <v>0.01631458906922489</v>
       </c>
       <c r="C19">
-        <v>239055</v>
+        <v>116135</v>
       </c>
       <c r="D19">
-        <v>331889</v>
+        <v>207889</v>
       </c>
       <c r="E19">
-        <v>92834</v>
+        <v>91754</v>
       </c>
       <c r="F19">
-        <v>0.002774164080619812</v>
+        <v>0.0178483899217099</v>
       </c>
       <c r="G19">
-        <v>16521</v>
+        <v>16419</v>
       </c>
       <c r="H19">
-        <v>35246</v>
+        <v>35144</v>
       </c>
       <c r="I19">
         <v>18725</v>
@@ -1038,25 +1038,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.009856782853603363</v>
+        <v>0.01805871597025543</v>
       </c>
       <c r="C20">
-        <v>114738</v>
+        <v>100580</v>
       </c>
       <c r="D20">
-        <v>186738</v>
+        <v>168064</v>
       </c>
       <c r="E20">
-        <v>72000</v>
+        <v>67484</v>
       </c>
       <c r="F20">
-        <v>0.003926035016775131</v>
+        <v>0.01667772699147463</v>
       </c>
       <c r="G20">
-        <v>16585</v>
+        <v>16227</v>
       </c>
       <c r="H20">
-        <v>35310</v>
+        <v>34952</v>
       </c>
       <c r="I20">
         <v>18725</v>
@@ -1067,25 +1067,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01367383450269699</v>
+        <v>0.02353144704829901</v>
       </c>
       <c r="C21">
-        <v>251895</v>
+        <v>289835</v>
       </c>
       <c r="D21">
-        <v>324191</v>
+        <v>357375</v>
       </c>
       <c r="E21">
-        <v>72296</v>
+        <v>67540</v>
       </c>
       <c r="F21">
-        <v>0.003510959446430206</v>
+        <v>0.01550936501007527</v>
       </c>
       <c r="G21">
-        <v>16764</v>
+        <v>16131</v>
       </c>
       <c r="H21">
-        <v>35489</v>
+        <v>34856</v>
       </c>
       <c r="I21">
         <v>18725</v>
@@ -1096,25 +1096,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.00766725093126297</v>
+        <v>0.01905755000188947</v>
       </c>
       <c r="C22">
-        <v>115409</v>
+        <v>121361</v>
       </c>
       <c r="D22">
-        <v>187131</v>
+        <v>167588</v>
       </c>
       <c r="E22">
-        <v>71722</v>
+        <v>46227</v>
       </c>
       <c r="F22">
-        <v>0.005439616739749908</v>
+        <v>0.01453533791936934</v>
       </c>
       <c r="G22">
-        <v>16137</v>
+        <v>16438</v>
       </c>
       <c r="H22">
-        <v>34862</v>
+        <v>35163</v>
       </c>
       <c r="I22">
         <v>18725</v>
@@ -1125,25 +1125,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.008689459413290024</v>
+        <v>0.01827650610357523</v>
       </c>
       <c r="C23">
-        <v>113587</v>
+        <v>207638</v>
       </c>
       <c r="D23">
-        <v>185683</v>
+        <v>275502</v>
       </c>
       <c r="E23">
-        <v>72096</v>
+        <v>67864</v>
       </c>
       <c r="F23">
-        <v>0.003281094133853912</v>
+        <v>0.01656811102293432</v>
       </c>
       <c r="G23">
-        <v>16329</v>
+        <v>16547</v>
       </c>
       <c r="H23">
-        <v>35054</v>
+        <v>35272</v>
       </c>
       <c r="I23">
         <v>18725</v>
@@ -1154,25 +1154,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.005500655621290207</v>
+        <v>0.02118599193636328</v>
       </c>
       <c r="C24">
-        <v>114016</v>
+        <v>435253</v>
       </c>
       <c r="D24">
-        <v>185882</v>
+        <v>503928</v>
       </c>
       <c r="E24">
-        <v>71866</v>
+        <v>68675</v>
       </c>
       <c r="F24">
-        <v>0.002161480486392975</v>
+        <v>0.01865548605564982</v>
       </c>
       <c r="G24">
-        <v>16073</v>
+        <v>16707</v>
       </c>
       <c r="H24">
-        <v>34798</v>
+        <v>35432</v>
       </c>
       <c r="I24">
         <v>18725</v>
@@ -1183,25 +1183,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.007373776286840439</v>
+        <v>0.0287064709700644</v>
       </c>
       <c r="C25">
-        <v>113895</v>
+        <v>340587</v>
       </c>
       <c r="D25">
-        <v>185993</v>
+        <v>406722</v>
       </c>
       <c r="E25">
-        <v>72098</v>
+        <v>66135</v>
       </c>
       <c r="F25">
-        <v>0.003471456468105316</v>
+        <v>0.005060052964836359</v>
       </c>
       <c r="G25">
-        <v>15945</v>
+        <v>16419</v>
       </c>
       <c r="H25">
-        <v>34670</v>
+        <v>35144</v>
       </c>
       <c r="I25">
         <v>18725</v>
@@ -1212,25 +1212,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01396877318620682</v>
+        <v>0.01357296004425734</v>
       </c>
       <c r="C26">
-        <v>244577</v>
+        <v>101961</v>
       </c>
       <c r="D26">
-        <v>316649</v>
+        <v>169828</v>
       </c>
       <c r="E26">
-        <v>72072</v>
+        <v>67867</v>
       </c>
       <c r="F26">
-        <v>0.003149151802062988</v>
+        <v>0.01450794702395797</v>
       </c>
       <c r="G26">
-        <v>15945</v>
+        <v>15683</v>
       </c>
       <c r="H26">
-        <v>34670</v>
+        <v>34408</v>
       </c>
       <c r="I26">
         <v>18725</v>
@@ -1241,25 +1241,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.007625523954629898</v>
+        <v>0.01973333791829646</v>
       </c>
       <c r="C27">
-        <v>112690</v>
+        <v>207723</v>
       </c>
       <c r="D27">
-        <v>184461</v>
+        <v>274131</v>
       </c>
       <c r="E27">
-        <v>71771</v>
+        <v>66408</v>
       </c>
       <c r="F27">
-        <v>0.002797570079565048</v>
+        <v>0.01008943398483098</v>
       </c>
       <c r="G27">
-        <v>15777</v>
+        <v>16211</v>
       </c>
       <c r="H27">
-        <v>34478</v>
+        <v>34912</v>
       </c>
       <c r="I27">
         <v>18701</v>
@@ -1270,28 +1270,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.02169206365942955</v>
+        <v>0.02405907295178622</v>
       </c>
       <c r="C28">
-        <v>239294</v>
+        <v>114686</v>
       </c>
       <c r="D28">
-        <v>325608</v>
+        <v>182026</v>
       </c>
       <c r="E28">
-        <v>86314</v>
+        <v>67340</v>
       </c>
       <c r="F28">
-        <v>0.003186449408531189</v>
+        <v>0.01388771797064692</v>
       </c>
       <c r="G28">
-        <v>16169</v>
+        <v>16291</v>
       </c>
       <c r="H28">
-        <v>34894</v>
+        <v>34575</v>
       </c>
       <c r="I28">
-        <v>18725</v>
+        <v>18284</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.005170807242393494</v>
+        <v>0.006657944060862064</v>
       </c>
       <c r="C29">
-        <v>114211</v>
+        <v>102972</v>
       </c>
       <c r="D29">
-        <v>185431</v>
+        <v>171388</v>
       </c>
       <c r="E29">
-        <v>71220</v>
+        <v>68416</v>
       </c>
       <c r="F29">
-        <v>0.002149853855371475</v>
+        <v>0.01401866308879107</v>
       </c>
       <c r="G29">
-        <v>16201</v>
+        <v>16579</v>
       </c>
       <c r="H29">
-        <v>34926</v>
+        <v>35158</v>
       </c>
       <c r="I29">
-        <v>18725</v>
+        <v>18579</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1328,25 +1328,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.008858274668455124</v>
+        <v>0.0127415080787614</v>
       </c>
       <c r="C30">
-        <v>174914</v>
+        <v>111478</v>
       </c>
       <c r="D30">
-        <v>258106</v>
+        <v>179342</v>
       </c>
       <c r="E30">
-        <v>83192</v>
+        <v>67864</v>
       </c>
       <c r="F30">
-        <v>0.002639807760715485</v>
+        <v>0.01111125200986862</v>
       </c>
       <c r="G30">
-        <v>15529</v>
+        <v>16707</v>
       </c>
       <c r="H30">
-        <v>34254</v>
+        <v>35432</v>
       </c>
       <c r="I30">
         <v>18725</v>
@@ -1357,28 +1357,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.01169070601463318</v>
+        <v>0.04346171906217933</v>
       </c>
       <c r="C31">
-        <v>239416</v>
+        <v>382593</v>
       </c>
       <c r="D31">
-        <v>312138</v>
+        <v>383264</v>
       </c>
       <c r="E31">
-        <v>72722</v>
+        <v>671</v>
       </c>
       <c r="F31">
-        <v>0.002963870763778687</v>
+        <v>0.01545724098104984</v>
       </c>
       <c r="G31">
-        <v>16009</v>
+        <v>16355</v>
       </c>
       <c r="H31">
-        <v>34588</v>
+        <v>34933</v>
       </c>
       <c r="I31">
-        <v>18579</v>
+        <v>18578</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.005526281893253326</v>
+        <v>0.01080533105414361</v>
       </c>
       <c r="C32">
-        <v>113941</v>
+        <v>103591</v>
       </c>
       <c r="D32">
-        <v>185191</v>
+        <v>171671</v>
       </c>
       <c r="E32">
-        <v>71250</v>
+        <v>68080</v>
       </c>
       <c r="F32">
-        <v>0.002679597586393356</v>
+        <v>0.01515956397634</v>
       </c>
       <c r="G32">
-        <v>15561</v>
+        <v>16195</v>
       </c>
       <c r="H32">
-        <v>34138</v>
+        <v>34920</v>
       </c>
       <c r="I32">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1415,25 +1415,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.006831418722867966</v>
+        <v>0.02410676598083228</v>
       </c>
       <c r="C33">
-        <v>110953</v>
+        <v>121124</v>
       </c>
       <c r="D33">
-        <v>182561</v>
+        <v>188372</v>
       </c>
       <c r="E33">
-        <v>71608</v>
+        <v>67248</v>
       </c>
       <c r="F33">
-        <v>0.002897229045629501</v>
+        <v>0.01664591301232576</v>
       </c>
       <c r="G33">
-        <v>16233</v>
+        <v>16515</v>
       </c>
       <c r="H33">
-        <v>34958</v>
+        <v>35240</v>
       </c>
       <c r="I33">
         <v>18725</v>
@@ -1444,28 +1444,28 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.009869590401649475</v>
+        <v>0.02380349393934011</v>
       </c>
       <c r="C34">
-        <v>112260</v>
+        <v>324765</v>
       </c>
       <c r="D34">
-        <v>183998</v>
+        <v>325867</v>
       </c>
       <c r="E34">
-        <v>71738</v>
+        <v>1102</v>
       </c>
       <c r="F34">
-        <v>0.002867318689823151</v>
+        <v>0.0144124299986288</v>
       </c>
       <c r="G34">
-        <v>16201</v>
+        <v>16579</v>
       </c>
       <c r="H34">
-        <v>34778</v>
+        <v>35304</v>
       </c>
       <c r="I34">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1473,25 +1473,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.01681980118155479</v>
+        <v>0.1713547779945657</v>
       </c>
       <c r="C35">
-        <v>246597</v>
+        <v>173734</v>
       </c>
       <c r="D35">
-        <v>316701</v>
+        <v>242958</v>
       </c>
       <c r="E35">
-        <v>70104</v>
+        <v>69224</v>
       </c>
       <c r="F35">
-        <v>0.0029100701212883</v>
+        <v>0.01724325492978096</v>
       </c>
       <c r="G35">
-        <v>15465</v>
+        <v>16803</v>
       </c>
       <c r="H35">
-        <v>34190</v>
+        <v>35528</v>
       </c>
       <c r="I35">
         <v>18725</v>
@@ -1502,28 +1502,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.005101662129163742</v>
+        <v>0.02436674293130636</v>
       </c>
       <c r="C36">
-        <v>112866</v>
+        <v>89916</v>
       </c>
       <c r="D36">
-        <v>184245</v>
+        <v>155368</v>
       </c>
       <c r="E36">
-        <v>71379</v>
+        <v>65452</v>
       </c>
       <c r="F36">
-        <v>0.002042103558778763</v>
+        <v>0.01663698197808117</v>
       </c>
       <c r="G36">
-        <v>16137</v>
+        <v>16355</v>
       </c>
       <c r="H36">
-        <v>34862</v>
+        <v>34935</v>
       </c>
       <c r="I36">
-        <v>18725</v>
+        <v>18580</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.00774790346622467</v>
+        <v>0.04709348198957741</v>
       </c>
       <c r="C37">
-        <v>113542</v>
+        <v>511034</v>
       </c>
       <c r="D37">
-        <v>184794</v>
+        <v>579063</v>
       </c>
       <c r="E37">
-        <v>71252</v>
+        <v>68029</v>
       </c>
       <c r="F37">
-        <v>0.002786025404930115</v>
+        <v>0.01809308002702892</v>
       </c>
       <c r="G37">
-        <v>16009</v>
+        <v>16603</v>
       </c>
       <c r="H37">
-        <v>34734</v>
+        <v>35304</v>
       </c>
       <c r="I37">
-        <v>18725</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1560,25 +1560,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01466454565525055</v>
+        <v>0.03092281997669488</v>
       </c>
       <c r="C38">
-        <v>232259</v>
+        <v>96944</v>
       </c>
       <c r="D38">
-        <v>303171</v>
+        <v>164504</v>
       </c>
       <c r="E38">
-        <v>70912</v>
+        <v>67560</v>
       </c>
       <c r="F38">
-        <v>0.002916067838668823</v>
+        <v>0.01689330395311117</v>
       </c>
       <c r="G38">
-        <v>15785</v>
+        <v>16643</v>
       </c>
       <c r="H38">
-        <v>34510</v>
+        <v>35368</v>
       </c>
       <c r="I38">
         <v>18725</v>
@@ -1589,25 +1589,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.01183470711112022</v>
+        <v>0.02538144495338202</v>
       </c>
       <c r="C39">
-        <v>252341</v>
+        <v>114476</v>
       </c>
       <c r="D39">
-        <v>324057</v>
+        <v>339641</v>
       </c>
       <c r="E39">
-        <v>71716</v>
+        <v>225165</v>
       </c>
       <c r="F39">
-        <v>0.002105154097080231</v>
+        <v>0.01860239403322339</v>
       </c>
       <c r="G39">
-        <v>16105</v>
+        <v>16419</v>
       </c>
       <c r="H39">
-        <v>34830</v>
+        <v>35144</v>
       </c>
       <c r="I39">
         <v>18725</v>
@@ -1618,28 +1618,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.007462099194526672</v>
+        <v>0.02432305098045617</v>
       </c>
       <c r="C40">
-        <v>112633</v>
+        <v>90026</v>
       </c>
       <c r="D40">
-        <v>183524</v>
+        <v>156322</v>
       </c>
       <c r="E40">
-        <v>70891</v>
+        <v>66296</v>
       </c>
       <c r="F40">
-        <v>0.002821963280439377</v>
+        <v>0.01974528096616268</v>
       </c>
       <c r="G40">
-        <v>15273</v>
+        <v>16227</v>
       </c>
       <c r="H40">
-        <v>33998</v>
+        <v>34512</v>
       </c>
       <c r="I40">
-        <v>18725</v>
+        <v>18285</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1647,25 +1647,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01300057023763657</v>
+        <v>0.02168181503657252</v>
       </c>
       <c r="C41">
-        <v>103895</v>
+        <v>282314</v>
       </c>
       <c r="D41">
-        <v>190322</v>
+        <v>348197</v>
       </c>
       <c r="E41">
-        <v>86427</v>
+        <v>65883</v>
       </c>
       <c r="F41">
-        <v>0.003078445792198181</v>
+        <v>0.01541307498700917</v>
       </c>
       <c r="G41">
-        <v>15721</v>
+        <v>16323</v>
       </c>
       <c r="H41">
-        <v>34446</v>
+        <v>35048</v>
       </c>
       <c r="I41">
         <v>18725</v>
@@ -1676,25 +1676,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0118674710392952</v>
+        <v>0.01086958404630423</v>
       </c>
       <c r="C42">
-        <v>112922</v>
+        <v>94342</v>
       </c>
       <c r="D42">
-        <v>184012</v>
+        <v>159030</v>
       </c>
       <c r="E42">
-        <v>71090</v>
+        <v>64688</v>
       </c>
       <c r="F42">
-        <v>0.003035828471183777</v>
+        <v>0.01348299707751721</v>
       </c>
       <c r="G42">
-        <v>15721</v>
+        <v>16579</v>
       </c>
       <c r="H42">
-        <v>34446</v>
+        <v>35304</v>
       </c>
       <c r="I42">
         <v>18725</v>
@@ -1705,25 +1705,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.01275313645601273</v>
+        <v>0.02704422897659242</v>
       </c>
       <c r="C43">
-        <v>243127</v>
+        <v>119838</v>
       </c>
       <c r="D43">
-        <v>315594</v>
+        <v>186398</v>
       </c>
       <c r="E43">
-        <v>72467</v>
+        <v>66560</v>
       </c>
       <c r="F43">
-        <v>0.006667003035545349</v>
+        <v>0.01467830000910908</v>
       </c>
       <c r="G43">
-        <v>16169</v>
+        <v>16163</v>
       </c>
       <c r="H43">
-        <v>34894</v>
+        <v>34888</v>
       </c>
       <c r="I43">
         <v>18725</v>
@@ -1734,25 +1734,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.007860463112592697</v>
+        <v>0.02354499895591289</v>
       </c>
       <c r="C44">
-        <v>113155</v>
+        <v>283510</v>
       </c>
       <c r="D44">
-        <v>184829</v>
+        <v>350960</v>
       </c>
       <c r="E44">
-        <v>71674</v>
+        <v>67450</v>
       </c>
       <c r="F44">
-        <v>0.002714812755584717</v>
+        <v>0.01721786591224372</v>
       </c>
       <c r="G44">
-        <v>15657</v>
+        <v>16451</v>
       </c>
       <c r="H44">
-        <v>34382</v>
+        <v>35176</v>
       </c>
       <c r="I44">
         <v>18725</v>
@@ -1763,25 +1763,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.01167141646146774</v>
+        <v>0.007968457066453993</v>
       </c>
       <c r="C45">
-        <v>246583</v>
+        <v>103678</v>
       </c>
       <c r="D45">
-        <v>319127</v>
+        <v>169160</v>
       </c>
       <c r="E45">
-        <v>72544</v>
+        <v>65482</v>
       </c>
       <c r="F45">
-        <v>0.003062333911657333</v>
+        <v>0.01509001199156046</v>
       </c>
       <c r="G45">
-        <v>16041</v>
+        <v>16643</v>
       </c>
       <c r="H45">
-        <v>34766</v>
+        <v>35368</v>
       </c>
       <c r="I45">
         <v>18725</v>
@@ -1792,25 +1792,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.01207416132092476</v>
+        <v>0.02648192504420877</v>
       </c>
       <c r="C46">
-        <v>112708</v>
+        <v>185430</v>
       </c>
       <c r="D46">
-        <v>183628</v>
+        <v>252114</v>
       </c>
       <c r="E46">
-        <v>70920</v>
+        <v>66684</v>
       </c>
       <c r="F46">
-        <v>0.003346160054206848</v>
+        <v>0.01820998196490109</v>
       </c>
       <c r="G46">
-        <v>15977</v>
+        <v>16547</v>
       </c>
       <c r="H46">
-        <v>34702</v>
+        <v>35272</v>
       </c>
       <c r="I46">
         <v>18725</v>
@@ -1821,28 +1821,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.01094996184110641</v>
+        <v>0.02953265700489283</v>
       </c>
       <c r="C47">
-        <v>137828</v>
+        <v>97481</v>
       </c>
       <c r="D47">
-        <v>209678</v>
+        <v>164961</v>
       </c>
       <c r="E47">
-        <v>71850</v>
+        <v>67480</v>
       </c>
       <c r="F47">
-        <v>0.003330685198307037</v>
+        <v>0.01462373393587768</v>
       </c>
       <c r="G47">
-        <v>16297</v>
+        <v>16315</v>
       </c>
       <c r="H47">
-        <v>34876</v>
+        <v>35016</v>
       </c>
       <c r="I47">
-        <v>18579</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1850,28 +1850,28 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0108400359749794</v>
+        <v>0.0130595350638032</v>
       </c>
       <c r="C48">
-        <v>234364</v>
+        <v>103318</v>
       </c>
       <c r="D48">
-        <v>237717</v>
+        <v>171398</v>
       </c>
       <c r="E48">
-        <v>3353</v>
+        <v>68080</v>
       </c>
       <c r="F48">
-        <v>0.003523509949445724</v>
+        <v>0.01825452502816916</v>
       </c>
       <c r="G48">
-        <v>16521</v>
+        <v>16483</v>
       </c>
       <c r="H48">
-        <v>35098</v>
+        <v>35208</v>
       </c>
       <c r="I48">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1879,25 +1879,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01493161544203758</v>
+        <v>0.01360386598389596</v>
       </c>
       <c r="C49">
-        <v>233709</v>
+        <v>100350</v>
       </c>
       <c r="D49">
-        <v>305317</v>
+        <v>166934</v>
       </c>
       <c r="E49">
-        <v>71608</v>
+        <v>66584</v>
       </c>
       <c r="F49">
-        <v>0.002969961613416672</v>
+        <v>0.01741689199116081</v>
       </c>
       <c r="G49">
-        <v>16041</v>
+        <v>16323</v>
       </c>
       <c r="H49">
-        <v>34766</v>
+        <v>35048</v>
       </c>
       <c r="I49">
         <v>18725</v>
@@ -1908,28 +1908,28 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.008955374360084534</v>
+        <v>0.01389088307041675</v>
       </c>
       <c r="C50">
-        <v>113213</v>
+        <v>98438</v>
       </c>
       <c r="D50">
-        <v>184137</v>
+        <v>165993</v>
       </c>
       <c r="E50">
-        <v>70924</v>
+        <v>67555</v>
       </c>
       <c r="F50">
-        <v>0.003209840506315231</v>
+        <v>0.01603182405233383</v>
       </c>
       <c r="G50">
-        <v>16009</v>
+        <v>15843</v>
       </c>
       <c r="H50">
-        <v>34734</v>
+        <v>34423</v>
       </c>
       <c r="I50">
-        <v>18725</v>
+        <v>18580</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1937,28 +1937,28 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.005544085055589676</v>
+        <v>0.02271509298589081</v>
       </c>
       <c r="C51">
-        <v>113690</v>
+        <v>166867</v>
       </c>
       <c r="D51">
-        <v>184972</v>
+        <v>234525</v>
       </c>
       <c r="E51">
-        <v>71282</v>
+        <v>67658</v>
       </c>
       <c r="F51">
-        <v>0.002461392432451248</v>
+        <v>0.01672432804480195</v>
       </c>
       <c r="G51">
-        <v>16489</v>
+        <v>16387</v>
       </c>
       <c r="H51">
-        <v>35066</v>
+        <v>35112</v>
       </c>
       <c r="I51">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1966,25 +1966,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.01677370071411133</v>
+        <v>0.04793106100987643</v>
       </c>
       <c r="C52">
-        <v>245730</v>
+        <v>474852</v>
       </c>
       <c r="D52">
-        <v>316746</v>
+        <v>475761</v>
       </c>
       <c r="E52">
-        <v>71016</v>
+        <v>909</v>
       </c>
       <c r="F52">
-        <v>0.005006805062294006</v>
+        <v>0.01807528000790626</v>
       </c>
       <c r="G52">
-        <v>15977</v>
+        <v>16035</v>
       </c>
       <c r="H52">
-        <v>34702</v>
+        <v>34760</v>
       </c>
       <c r="I52">
         <v>18725</v>
@@ -1995,25 +1995,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.02259087935090065</v>
+        <v>0.01396152994129807</v>
       </c>
       <c r="C53">
-        <v>370922</v>
+        <v>105963</v>
       </c>
       <c r="D53">
-        <v>442469</v>
+        <v>174469</v>
       </c>
       <c r="E53">
-        <v>71547</v>
+        <v>68506</v>
       </c>
       <c r="F53">
-        <v>0.003347549587488174</v>
+        <v>0.009980292059481144</v>
       </c>
       <c r="G53">
-        <v>15983</v>
+        <v>16681</v>
       </c>
       <c r="H53">
-        <v>34708</v>
+        <v>35406</v>
       </c>
       <c r="I53">
         <v>18725</v>
@@ -2024,28 +2024,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.009534850716590881</v>
+        <v>0.02160790096968412</v>
       </c>
       <c r="C54">
-        <v>112099</v>
+        <v>220028</v>
       </c>
       <c r="D54">
-        <v>183835</v>
+        <v>288135</v>
       </c>
       <c r="E54">
-        <v>71736</v>
+        <v>68107</v>
       </c>
       <c r="F54">
-        <v>0.005679845809936523</v>
+        <v>0.01402583392336965</v>
       </c>
       <c r="G54">
-        <v>16233</v>
+        <v>16803</v>
       </c>
       <c r="H54">
-        <v>34811</v>
+        <v>35528</v>
       </c>
       <c r="I54">
-        <v>18578</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2053,28 +2053,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.007673230022192001</v>
+        <v>0.02651295496616513</v>
       </c>
       <c r="C55">
-        <v>111910</v>
+        <v>123945</v>
       </c>
       <c r="D55">
-        <v>183886</v>
+        <v>191555</v>
       </c>
       <c r="E55">
-        <v>71976</v>
+        <v>67610</v>
       </c>
       <c r="F55">
-        <v>0.002112194895744324</v>
+        <v>0.01627568993717432</v>
       </c>
       <c r="G55">
-        <v>16105</v>
+        <v>16195</v>
       </c>
       <c r="H55">
-        <v>34682</v>
+        <v>34920</v>
       </c>
       <c r="I55">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2082,28 +2082,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.008636616170406342</v>
+        <v>0.009716114029288292</v>
       </c>
       <c r="C56">
-        <v>112466</v>
+        <v>96642</v>
       </c>
       <c r="D56">
-        <v>183946</v>
+        <v>162978</v>
       </c>
       <c r="E56">
-        <v>71480</v>
+        <v>66336</v>
       </c>
       <c r="F56">
-        <v>0.00354275107383728</v>
+        <v>0.006947859073989093</v>
       </c>
       <c r="G56">
-        <v>15945</v>
+        <v>16419</v>
       </c>
       <c r="H56">
-        <v>34670</v>
+        <v>34994</v>
       </c>
       <c r="I56">
-        <v>18725</v>
+        <v>18575</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2111,25 +2111,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.01624106615781784</v>
+        <v>0.0159224170492962</v>
       </c>
       <c r="C57">
-        <v>115064</v>
+        <v>110175</v>
       </c>
       <c r="D57">
-        <v>186699</v>
+        <v>177419</v>
       </c>
       <c r="E57">
-        <v>71635</v>
+        <v>67244</v>
       </c>
       <c r="F57">
-        <v>0.003322675824165344</v>
+        <v>0.007555986056104302</v>
       </c>
       <c r="G57">
-        <v>16361</v>
+        <v>16419</v>
       </c>
       <c r="H57">
-        <v>35086</v>
+        <v>35144</v>
       </c>
       <c r="I57">
         <v>18725</v>
@@ -2140,28 +2140,28 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.01656750589609146</v>
+        <v>0.01072620006743819</v>
       </c>
       <c r="C58">
-        <v>235354</v>
+        <v>96988</v>
       </c>
       <c r="D58">
-        <v>306706</v>
+        <v>163023</v>
       </c>
       <c r="E58">
-        <v>71352</v>
+        <v>66035</v>
       </c>
       <c r="F58">
-        <v>0.003496039658784866</v>
+        <v>0.01699465094134212</v>
       </c>
       <c r="G58">
-        <v>16489</v>
+        <v>16283</v>
       </c>
       <c r="H58">
-        <v>35214</v>
+        <v>34984</v>
       </c>
       <c r="I58">
-        <v>18725</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2169,28 +2169,28 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.02263207361102104</v>
+        <v>0.0147790260380134</v>
       </c>
       <c r="C59">
-        <v>182565</v>
+        <v>117563</v>
       </c>
       <c r="D59">
-        <v>253696</v>
+        <v>183758</v>
       </c>
       <c r="E59">
-        <v>71131</v>
+        <v>66195</v>
       </c>
       <c r="F59">
-        <v>0.003272261470556259</v>
+        <v>0.01115520799066871</v>
       </c>
       <c r="G59">
-        <v>16137</v>
+        <v>16355</v>
       </c>
       <c r="H59">
-        <v>34715</v>
+        <v>35080</v>
       </c>
       <c r="I59">
-        <v>18578</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2198,28 +2198,28 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.03056738153100014</v>
+        <v>0.04267954104579985</v>
       </c>
       <c r="C60">
-        <v>251367</v>
+        <v>281898</v>
       </c>
       <c r="D60">
-        <v>387541</v>
+        <v>350746</v>
       </c>
       <c r="E60">
-        <v>136174</v>
+        <v>68848</v>
       </c>
       <c r="F60">
-        <v>0.003550097346305847</v>
+        <v>0.01580749207641929</v>
       </c>
       <c r="G60">
-        <v>16737</v>
+        <v>16643</v>
       </c>
       <c r="H60">
-        <v>35290</v>
+        <v>35368</v>
       </c>
       <c r="I60">
-        <v>18553</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2227,28 +2227,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.006124962121248245</v>
+        <v>0.01349693897645921</v>
       </c>
       <c r="C61">
-        <v>113283</v>
+        <v>104618</v>
       </c>
       <c r="D61">
-        <v>183621</v>
+        <v>172420</v>
       </c>
       <c r="E61">
-        <v>70338</v>
+        <v>67802</v>
       </c>
       <c r="F61">
-        <v>0.002205807715654373</v>
+        <v>0.01526226697023958</v>
       </c>
       <c r="G61">
-        <v>15881</v>
+        <v>16355</v>
       </c>
       <c r="H61">
-        <v>34460</v>
+        <v>35080</v>
       </c>
       <c r="I61">
-        <v>18579</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2256,28 +2256,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.01106329262256622</v>
+        <v>0.01159489003475755</v>
       </c>
       <c r="C62">
-        <v>114002</v>
+        <v>99579</v>
       </c>
       <c r="D62">
-        <v>184792</v>
+        <v>167483</v>
       </c>
       <c r="E62">
-        <v>70790</v>
+        <v>67904</v>
       </c>
       <c r="F62">
-        <v>0.003711998462677002</v>
+        <v>0.01725410798098892</v>
       </c>
       <c r="G62">
-        <v>15753</v>
+        <v>16611</v>
       </c>
       <c r="H62">
-        <v>34478</v>
+        <v>35190</v>
       </c>
       <c r="I62">
-        <v>18725</v>
+        <v>18579</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2285,28 +2285,28 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.007995519787073135</v>
+        <v>0.02344805200118572</v>
       </c>
       <c r="C63">
-        <v>116425</v>
+        <v>107149</v>
       </c>
       <c r="D63">
-        <v>225836</v>
+        <v>174879</v>
       </c>
       <c r="E63">
-        <v>109411</v>
+        <v>67730</v>
       </c>
       <c r="F63">
-        <v>0.005431804805994034</v>
+        <v>0.01326034299563617</v>
       </c>
       <c r="G63">
-        <v>16041</v>
+        <v>16963</v>
       </c>
       <c r="H63">
-        <v>34766</v>
+        <v>35395</v>
       </c>
       <c r="I63">
-        <v>18725</v>
+        <v>18432</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2314,28 +2314,28 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.01513012498617172</v>
+        <v>0.02010816894471645</v>
       </c>
       <c r="C64">
-        <v>244779</v>
+        <v>216376</v>
       </c>
       <c r="D64">
-        <v>316366</v>
+        <v>282178</v>
       </c>
       <c r="E64">
-        <v>71587</v>
+        <v>65802</v>
       </c>
       <c r="F64">
-        <v>0.003371536731719971</v>
+        <v>0.01524045900441706</v>
       </c>
       <c r="G64">
-        <v>16041</v>
+        <v>16099</v>
       </c>
       <c r="H64">
-        <v>34766</v>
+        <v>34678</v>
       </c>
       <c r="I64">
-        <v>18725</v>
+        <v>18579</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2343,25 +2343,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.01941158622503281</v>
+        <v>0.03105895803309977</v>
       </c>
       <c r="C65">
-        <v>243951</v>
+        <v>103579</v>
       </c>
       <c r="D65">
-        <v>315895</v>
+        <v>170685</v>
       </c>
       <c r="E65">
-        <v>71944</v>
+        <v>67106</v>
       </c>
       <c r="F65">
-        <v>0.002654705196619034</v>
+        <v>0.01791495305951685</v>
       </c>
       <c r="G65">
-        <v>15913</v>
+        <v>16515</v>
       </c>
       <c r="H65">
-        <v>34638</v>
+        <v>35240</v>
       </c>
       <c r="I65">
         <v>18725</v>
@@ -2372,25 +2372,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.008826278150081635</v>
+        <v>0.04695469804573804</v>
       </c>
       <c r="C66">
-        <v>111176</v>
+        <v>130694</v>
       </c>
       <c r="D66">
-        <v>183112</v>
+        <v>361069</v>
       </c>
       <c r="E66">
-        <v>71936</v>
+        <v>230375</v>
       </c>
       <c r="F66">
-        <v>0.00617348775267601</v>
+        <v>0.02013497101143003</v>
       </c>
       <c r="G66">
-        <v>16137</v>
+        <v>16771</v>
       </c>
       <c r="H66">
-        <v>34862</v>
+        <v>35496</v>
       </c>
       <c r="I66">
         <v>18725</v>
@@ -2401,28 +2401,28 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.02122785896062851</v>
+        <v>0.02323116501793265</v>
       </c>
       <c r="C67">
-        <v>238709</v>
+        <v>206143</v>
       </c>
       <c r="D67">
-        <v>426365</v>
+        <v>272339</v>
       </c>
       <c r="E67">
-        <v>187656</v>
+        <v>66196</v>
       </c>
       <c r="F67">
-        <v>0.003249906003475189</v>
+        <v>0.005198983009904623</v>
       </c>
       <c r="G67">
-        <v>16329</v>
+        <v>16803</v>
       </c>
       <c r="H67">
-        <v>34907</v>
+        <v>35384</v>
       </c>
       <c r="I67">
-        <v>18578</v>
+        <v>18581</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2430,25 +2430,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.01200588047504425</v>
+        <v>0.01460857898928225</v>
       </c>
       <c r="C68">
-        <v>251822</v>
+        <v>95054</v>
       </c>
       <c r="D68">
-        <v>323926</v>
+        <v>160998</v>
       </c>
       <c r="E68">
-        <v>72104</v>
+        <v>65944</v>
       </c>
       <c r="F68">
-        <v>0.003457188606262207</v>
+        <v>0.01505662698764354</v>
       </c>
       <c r="G68">
-        <v>15977</v>
+        <v>16323</v>
       </c>
       <c r="H68">
-        <v>34702</v>
+        <v>35048</v>
       </c>
       <c r="I68">
         <v>18725</v>
@@ -2459,28 +2459,28 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.007565885782241821</v>
+        <v>0.02088355703745037</v>
       </c>
       <c r="C69">
-        <v>114608</v>
+        <v>98673</v>
       </c>
       <c r="D69">
-        <v>185866</v>
+        <v>168481</v>
       </c>
       <c r="E69">
-        <v>71258</v>
+        <v>69808</v>
       </c>
       <c r="F69">
-        <v>0.003010924905538559</v>
+        <v>0.005518406047485769</v>
       </c>
       <c r="G69">
-        <v>16105</v>
+        <v>16867</v>
       </c>
       <c r="H69">
-        <v>34830</v>
+        <v>35299</v>
       </c>
       <c r="I69">
-        <v>18725</v>
+        <v>18432</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2488,28 +2488,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.01207210868597031</v>
+        <v>0.01928888191469014</v>
       </c>
       <c r="C70">
-        <v>115063</v>
+        <v>229526</v>
       </c>
       <c r="D70">
-        <v>186298</v>
+        <v>296747</v>
       </c>
       <c r="E70">
-        <v>71235</v>
+        <v>67221</v>
       </c>
       <c r="F70">
-        <v>0.003486309200525284</v>
+        <v>0.01638978207483888</v>
       </c>
       <c r="G70">
-        <v>16297</v>
+        <v>16451</v>
       </c>
       <c r="H70">
-        <v>35022</v>
+        <v>35028</v>
       </c>
       <c r="I70">
-        <v>18725</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2517,28 +2517,28 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0155024342238903</v>
+        <v>0.01215299998875707</v>
       </c>
       <c r="C71">
-        <v>227971</v>
+        <v>103435</v>
       </c>
       <c r="D71">
-        <v>299398</v>
+        <v>171135</v>
       </c>
       <c r="E71">
-        <v>71427</v>
+        <v>67700</v>
       </c>
       <c r="F71">
-        <v>0.002918567508459091</v>
+        <v>0.008088978938758373</v>
       </c>
       <c r="G71">
-        <v>15689</v>
+        <v>16707</v>
       </c>
       <c r="H71">
-        <v>34414</v>
+        <v>35287</v>
       </c>
       <c r="I71">
-        <v>18725</v>
+        <v>18580</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2546,25 +2546,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.007929325103759766</v>
+        <v>0.02657799597363919</v>
       </c>
       <c r="C72">
-        <v>111878</v>
+        <v>281680</v>
       </c>
       <c r="D72">
-        <v>183297</v>
+        <v>350464</v>
       </c>
       <c r="E72">
-        <v>71419</v>
+        <v>68784</v>
       </c>
       <c r="F72">
-        <v>0.003176081925630569</v>
+        <v>0.0172224499983713</v>
       </c>
       <c r="G72">
-        <v>16169</v>
+        <v>16835</v>
       </c>
       <c r="H72">
-        <v>34894</v>
+        <v>35560</v>
       </c>
       <c r="I72">
         <v>18725</v>
@@ -2575,25 +2575,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.01186322420835495</v>
+        <v>0.04044344706926495</v>
       </c>
       <c r="C73">
-        <v>109183</v>
+        <v>347584</v>
       </c>
       <c r="D73">
-        <v>180231</v>
+        <v>415066</v>
       </c>
       <c r="E73">
-        <v>71048</v>
+        <v>67482</v>
       </c>
       <c r="F73">
-        <v>0.003160864114761353</v>
+        <v>0.01506974489893764</v>
       </c>
       <c r="G73">
-        <v>16073</v>
+        <v>16419</v>
       </c>
       <c r="H73">
-        <v>34798</v>
+        <v>35144</v>
       </c>
       <c r="I73">
         <v>18725</v>
@@ -2604,25 +2604,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.009487401694059372</v>
+        <v>0.01493315398693085</v>
       </c>
       <c r="C74">
-        <v>115634</v>
+        <v>101082</v>
       </c>
       <c r="D74">
-        <v>187462</v>
+        <v>168717</v>
       </c>
       <c r="E74">
-        <v>71828</v>
+        <v>67635</v>
       </c>
       <c r="F74">
-        <v>0.002903841435909271</v>
+        <v>0.01383279310539365</v>
       </c>
       <c r="G74">
-        <v>16233</v>
+        <v>16515</v>
       </c>
       <c r="H74">
-        <v>34958</v>
+        <v>35240</v>
       </c>
       <c r="I74">
         <v>18725</v>
@@ -2633,28 +2633,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.007814474403858185</v>
+        <v>0.02684241894166917</v>
       </c>
       <c r="C75">
-        <v>112409</v>
+        <v>340216</v>
       </c>
       <c r="D75">
-        <v>184481</v>
+        <v>408476</v>
       </c>
       <c r="E75">
-        <v>72072</v>
+        <v>68260</v>
       </c>
       <c r="F75">
-        <v>0.002951942384243011</v>
+        <v>0.01865951193030924</v>
       </c>
       <c r="G75">
-        <v>16105</v>
+        <v>16579</v>
       </c>
       <c r="H75">
-        <v>34830</v>
+        <v>35159</v>
       </c>
       <c r="I75">
-        <v>18725</v>
+        <v>18580</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2662,28 +2662,28 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.01972492039203644</v>
+        <v>0.02653646399267018</v>
       </c>
       <c r="C76">
-        <v>249752</v>
+        <v>216160</v>
       </c>
       <c r="D76">
-        <v>321810</v>
+        <v>283858</v>
       </c>
       <c r="E76">
-        <v>72058</v>
+        <v>67698</v>
       </c>
       <c r="F76">
-        <v>0.006005082279443741</v>
+        <v>0.01455679698847234</v>
       </c>
       <c r="G76">
-        <v>16617</v>
+        <v>16515</v>
       </c>
       <c r="H76">
-        <v>35195</v>
+        <v>35240</v>
       </c>
       <c r="I76">
-        <v>18578</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2691,28 +2691,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.01021745055913925</v>
+        <v>0.02635769092012197</v>
       </c>
       <c r="C77">
-        <v>109809</v>
+        <v>301754</v>
       </c>
       <c r="D77">
-        <v>179292</v>
+        <v>371874</v>
       </c>
       <c r="E77">
-        <v>69483</v>
+        <v>70120</v>
       </c>
       <c r="F77">
-        <v>0.00286562368273735</v>
+        <v>0.00822256610263139</v>
       </c>
       <c r="G77">
-        <v>15561</v>
+        <v>16515</v>
       </c>
       <c r="H77">
-        <v>34139</v>
+        <v>35240</v>
       </c>
       <c r="I77">
-        <v>18578</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2720,28 +2720,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.007892642170190811</v>
+        <v>0.02749648608732969</v>
       </c>
       <c r="C78">
-        <v>112548</v>
+        <v>124402</v>
       </c>
       <c r="D78">
-        <v>183926</v>
+        <v>192933</v>
       </c>
       <c r="E78">
-        <v>71378</v>
+        <v>68531</v>
       </c>
       <c r="F78">
-        <v>0.002558283507823944</v>
+        <v>0.008474119007587433</v>
       </c>
       <c r="G78">
-        <v>16233</v>
+        <v>16579</v>
       </c>
       <c r="H78">
-        <v>34813</v>
+        <v>35304</v>
       </c>
       <c r="I78">
-        <v>18580</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2749,28 +2749,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.01204800605773926</v>
+        <v>0.01580528495833278</v>
       </c>
       <c r="C79">
-        <v>171269</v>
+        <v>96410</v>
       </c>
       <c r="D79">
-        <v>241517</v>
+        <v>162509</v>
       </c>
       <c r="E79">
-        <v>70248</v>
+        <v>66099</v>
       </c>
       <c r="F79">
-        <v>0.003544017672538757</v>
+        <v>0.01483906095381826</v>
       </c>
       <c r="G79">
-        <v>16137</v>
+        <v>16387</v>
       </c>
       <c r="H79">
-        <v>34714</v>
+        <v>35112</v>
       </c>
       <c r="I79">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2778,25 +2778,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.007459457963705063</v>
+        <v>0.03217661695089191</v>
       </c>
       <c r="C80">
-        <v>114090</v>
+        <v>453560</v>
       </c>
       <c r="D80">
-        <v>186052</v>
+        <v>454231</v>
       </c>
       <c r="E80">
-        <v>71962</v>
+        <v>671</v>
       </c>
       <c r="F80">
-        <v>0.004694145172834396</v>
+        <v>0.01898157096002251</v>
       </c>
       <c r="G80">
-        <v>16169</v>
+        <v>16483</v>
       </c>
       <c r="H80">
-        <v>34894</v>
+        <v>35208</v>
       </c>
       <c r="I80">
         <v>18725</v>
@@ -2807,25 +2807,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.01236936077475548</v>
+        <v>0.02242027607280761</v>
       </c>
       <c r="C81">
-        <v>116992</v>
+        <v>262083</v>
       </c>
       <c r="D81">
-        <v>189780</v>
+        <v>328246</v>
       </c>
       <c r="E81">
-        <v>72788</v>
+        <v>66163</v>
       </c>
       <c r="F81">
-        <v>0.003097165375947952</v>
+        <v>0.0172040379839018</v>
       </c>
       <c r="G81">
-        <v>16009</v>
+        <v>16579</v>
       </c>
       <c r="H81">
-        <v>34734</v>
+        <v>35304</v>
       </c>
       <c r="I81">
         <v>18725</v>
@@ -2836,28 +2836,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.01995360478758812</v>
+        <v>0.03193599102087319</v>
       </c>
       <c r="C82">
-        <v>112549</v>
+        <v>245520</v>
       </c>
       <c r="D82">
-        <v>184016</v>
+        <v>313451</v>
       </c>
       <c r="E82">
-        <v>71467</v>
+        <v>67931</v>
       </c>
       <c r="F82">
-        <v>0.002391763031482697</v>
+        <v>0.01568910491187125</v>
       </c>
       <c r="G82">
-        <v>15977</v>
+        <v>16163</v>
       </c>
       <c r="H82">
-        <v>34556</v>
+        <v>34888</v>
       </c>
       <c r="I82">
-        <v>18579</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2865,28 +2865,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.01082953810691833</v>
+        <v>0.01703542203176767</v>
       </c>
       <c r="C83">
-        <v>113959</v>
+        <v>308622</v>
       </c>
       <c r="D83">
-        <v>186223</v>
+        <v>376704</v>
       </c>
       <c r="E83">
-        <v>72264</v>
+        <v>68082</v>
       </c>
       <c r="F83">
-        <v>0.004070620983839035</v>
+        <v>0.01546613196842372</v>
       </c>
       <c r="G83">
-        <v>16073</v>
+        <v>16259</v>
       </c>
       <c r="H83">
-        <v>34650</v>
+        <v>34984</v>
       </c>
       <c r="I83">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2894,28 +2894,28 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.02232587710022926</v>
+        <v>0.02739418298006058</v>
       </c>
       <c r="C84">
-        <v>250073</v>
+        <v>305391</v>
       </c>
       <c r="D84">
-        <v>471873</v>
+        <v>372729</v>
       </c>
       <c r="E84">
-        <v>221800</v>
+        <v>67338</v>
       </c>
       <c r="F84">
-        <v>0.002459749579429626</v>
+        <v>0.00565204001031816</v>
       </c>
       <c r="G84">
-        <v>16329</v>
+        <v>16259</v>
       </c>
       <c r="H84">
-        <v>34908</v>
+        <v>34984</v>
       </c>
       <c r="I84">
-        <v>18579</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2923,28 +2923,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.008455853909254074</v>
+        <v>0.02442061295732856</v>
       </c>
       <c r="C85">
-        <v>112741</v>
+        <v>192300</v>
       </c>
       <c r="D85">
-        <v>183929</v>
+        <v>260204</v>
       </c>
       <c r="E85">
-        <v>71188</v>
+        <v>67904</v>
       </c>
       <c r="F85">
-        <v>0.002238675951957703</v>
+        <v>0.01972566498443484</v>
       </c>
       <c r="G85">
-        <v>15849</v>
+        <v>16355</v>
       </c>
       <c r="H85">
-        <v>34427</v>
+        <v>34788</v>
       </c>
       <c r="I85">
-        <v>18578</v>
+        <v>18433</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2952,25 +2952,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.02126376330852509</v>
+        <v>0.02367352601140738</v>
       </c>
       <c r="C86">
-        <v>244170</v>
+        <v>271155</v>
       </c>
       <c r="D86">
-        <v>314668</v>
+        <v>272321</v>
       </c>
       <c r="E86">
-        <v>70498</v>
+        <v>1166</v>
       </c>
       <c r="F86">
-        <v>0.003075726330280304</v>
+        <v>0.01783834502566606</v>
       </c>
       <c r="G86">
-        <v>16041</v>
+        <v>16611</v>
       </c>
       <c r="H86">
-        <v>34766</v>
+        <v>35336</v>
       </c>
       <c r="I86">
         <v>18725</v>
@@ -2981,28 +2981,28 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.015085369348526</v>
+        <v>0.02642189897596836</v>
       </c>
       <c r="C87">
-        <v>236066</v>
+        <v>280842</v>
       </c>
       <c r="D87">
-        <v>318530</v>
+        <v>347133</v>
       </c>
       <c r="E87">
-        <v>82464</v>
+        <v>66291</v>
       </c>
       <c r="F87">
-        <v>0.002122256904840469</v>
+        <v>0.01564744405914098</v>
       </c>
       <c r="G87">
-        <v>15881</v>
+        <v>16259</v>
       </c>
       <c r="H87">
-        <v>34606</v>
+        <v>34836</v>
       </c>
       <c r="I87">
-        <v>18725</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3010,28 +3010,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.01233648136258125</v>
+        <v>0.03100775403436273</v>
       </c>
       <c r="C88">
-        <v>126997</v>
+        <v>114046</v>
       </c>
       <c r="D88">
-        <v>196813</v>
+        <v>181214</v>
       </c>
       <c r="E88">
-        <v>69816</v>
+        <v>67168</v>
       </c>
       <c r="F88">
-        <v>0.003196440637111664</v>
+        <v>0.01129131391644478</v>
       </c>
       <c r="G88">
-        <v>15913</v>
+        <v>16707</v>
       </c>
       <c r="H88">
-        <v>34490</v>
+        <v>35432</v>
       </c>
       <c r="I88">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3039,25 +3039,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.02487113699316978</v>
+        <v>0.04587947495747358</v>
       </c>
       <c r="C89">
-        <v>258156</v>
+        <v>105143</v>
       </c>
       <c r="D89">
-        <v>366714</v>
+        <v>284789</v>
       </c>
       <c r="E89">
-        <v>108558</v>
+        <v>179646</v>
       </c>
       <c r="F89">
-        <v>0.004346195608377457</v>
+        <v>0.003010660992003977</v>
       </c>
       <c r="G89">
-        <v>16201</v>
+        <v>16419</v>
       </c>
       <c r="H89">
-        <v>34926</v>
+        <v>35144</v>
       </c>
       <c r="I89">
         <v>18725</v>
@@ -3068,28 +3068,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.008736558258533478</v>
+        <v>0.02574923809152097</v>
       </c>
       <c r="C90">
-        <v>113119</v>
+        <v>194184</v>
       </c>
       <c r="D90">
-        <v>183967</v>
+        <v>262736</v>
       </c>
       <c r="E90">
-        <v>70848</v>
+        <v>68552</v>
       </c>
       <c r="F90">
-        <v>0.003710851073265076</v>
+        <v>0.01420497102662921</v>
       </c>
       <c r="G90">
-        <v>16425</v>
+        <v>16611</v>
       </c>
       <c r="H90">
-        <v>34860</v>
+        <v>35336</v>
       </c>
       <c r="I90">
-        <v>18435</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3097,25 +3097,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.01653734594583511</v>
+        <v>0.01631683204323053</v>
       </c>
       <c r="C91">
-        <v>224764</v>
+        <v>101717</v>
       </c>
       <c r="D91">
-        <v>310517</v>
+        <v>169781</v>
       </c>
       <c r="E91">
-        <v>85753</v>
+        <v>68064</v>
       </c>
       <c r="F91">
-        <v>0.001969259232282639</v>
+        <v>0.01868184201885015</v>
       </c>
       <c r="G91">
-        <v>15913</v>
+        <v>16643</v>
       </c>
       <c r="H91">
-        <v>34638</v>
+        <v>35368</v>
       </c>
       <c r="I91">
         <v>18725</v>
@@ -3126,25 +3126,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.01191945374011993</v>
+        <v>0.008606529096141458</v>
       </c>
       <c r="C92">
-        <v>112441</v>
+        <v>109656</v>
       </c>
       <c r="D92">
-        <v>184289</v>
+        <v>176482</v>
       </c>
       <c r="E92">
-        <v>71848</v>
+        <v>66826</v>
       </c>
       <c r="F92">
-        <v>0.003444265574216843</v>
+        <v>0.01913382194470614</v>
       </c>
       <c r="G92">
-        <v>15977</v>
+        <v>16067</v>
       </c>
       <c r="H92">
-        <v>34702</v>
+        <v>34792</v>
       </c>
       <c r="I92">
         <v>18725</v>
@@ -3155,25 +3155,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.006033487617969513</v>
+        <v>0.02383447799365968</v>
       </c>
       <c r="C93">
-        <v>113778</v>
+        <v>283506</v>
       </c>
       <c r="D93">
-        <v>185093</v>
+        <v>350308</v>
       </c>
       <c r="E93">
-        <v>71315</v>
+        <v>66802</v>
       </c>
       <c r="F93">
-        <v>0.00214279443025589</v>
+        <v>0.01533286808989942</v>
       </c>
       <c r="G93">
-        <v>15561</v>
+        <v>16419</v>
       </c>
       <c r="H93">
-        <v>34286</v>
+        <v>35144</v>
       </c>
       <c r="I93">
         <v>18725</v>
@@ -3184,25 +3184,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.007813736796379089</v>
+        <v>0.01471547991968691</v>
       </c>
       <c r="C94">
-        <v>115383</v>
+        <v>111703</v>
       </c>
       <c r="D94">
-        <v>187495</v>
+        <v>178291</v>
       </c>
       <c r="E94">
-        <v>72112</v>
+        <v>66588</v>
       </c>
       <c r="F94">
-        <v>0.002881605178117752</v>
+        <v>0.02106998802628368</v>
       </c>
       <c r="G94">
-        <v>16329</v>
+        <v>16323</v>
       </c>
       <c r="H94">
-        <v>35054</v>
+        <v>35048</v>
       </c>
       <c r="I94">
         <v>18725</v>
@@ -3213,28 +3213,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.005886703729629517</v>
+        <v>0.0155168219935149</v>
       </c>
       <c r="C95">
-        <v>115379</v>
+        <v>92424</v>
       </c>
       <c r="D95">
-        <v>187910</v>
+        <v>158378</v>
       </c>
       <c r="E95">
-        <v>72531</v>
+        <v>65954</v>
       </c>
       <c r="F95">
-        <v>0.003605663776397705</v>
+        <v>0.01479048491455615</v>
       </c>
       <c r="G95">
-        <v>15721</v>
+        <v>16259</v>
       </c>
       <c r="H95">
-        <v>34301</v>
+        <v>34984</v>
       </c>
       <c r="I95">
-        <v>18580</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3242,25 +3242,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01538769155740738</v>
+        <v>0.01147094194311649</v>
       </c>
       <c r="C96">
-        <v>241145</v>
+        <v>100788</v>
       </c>
       <c r="D96">
-        <v>312646</v>
+        <v>166068</v>
       </c>
       <c r="E96">
-        <v>71501</v>
+        <v>65280</v>
       </c>
       <c r="F96">
-        <v>0.002182558178901672</v>
+        <v>0.01895713002886623</v>
       </c>
       <c r="G96">
-        <v>16041</v>
+        <v>16419</v>
       </c>
       <c r="H96">
-        <v>34766</v>
+        <v>35144</v>
       </c>
       <c r="I96">
         <v>18725</v>
@@ -3271,25 +3271,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.02771292254328728</v>
+        <v>0.0395627620164305</v>
       </c>
       <c r="C97">
-        <v>239391</v>
+        <v>368574</v>
       </c>
       <c r="D97">
-        <v>460095</v>
+        <v>436878</v>
       </c>
       <c r="E97">
-        <v>220704</v>
+        <v>68304</v>
       </c>
       <c r="F97">
-        <v>0.003405019640922546</v>
+        <v>0.02035797794815153</v>
       </c>
       <c r="G97">
-        <v>16265</v>
+        <v>16675</v>
       </c>
       <c r="H97">
-        <v>34990</v>
+        <v>35400</v>
       </c>
       <c r="I97">
         <v>18725</v>
@@ -3300,28 +3300,28 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.01467516273260117</v>
+        <v>0.02559738606214523</v>
       </c>
       <c r="C98">
-        <v>310461</v>
+        <v>226520</v>
       </c>
       <c r="D98">
-        <v>417743</v>
+        <v>295674</v>
       </c>
       <c r="E98">
-        <v>107282</v>
+        <v>69154</v>
       </c>
       <c r="F98">
-        <v>0.00211990624666214</v>
+        <v>0.01464400591794401</v>
       </c>
       <c r="G98">
-        <v>16105</v>
+        <v>16739</v>
       </c>
       <c r="H98">
-        <v>34830</v>
+        <v>35026</v>
       </c>
       <c r="I98">
-        <v>18725</v>
+        <v>18287</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3329,28 +3329,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01184866577386856</v>
+        <v>0.02428744197823107</v>
       </c>
       <c r="C99">
-        <v>105981</v>
+        <v>244690</v>
       </c>
       <c r="D99">
-        <v>176760</v>
+        <v>311015</v>
       </c>
       <c r="E99">
-        <v>70779</v>
+        <v>66325</v>
       </c>
       <c r="F99">
-        <v>0.003029949963092804</v>
+        <v>0.01431141397915781</v>
       </c>
       <c r="G99">
-        <v>16137</v>
+        <v>16131</v>
       </c>
       <c r="H99">
-        <v>34714</v>
+        <v>34856</v>
       </c>
       <c r="I99">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3358,25 +3358,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.01233640685677528</v>
+        <v>0.03219402092508972</v>
       </c>
       <c r="C100">
-        <v>112885</v>
+        <v>254958</v>
       </c>
       <c r="D100">
-        <v>184925</v>
+        <v>277213</v>
       </c>
       <c r="E100">
-        <v>72040</v>
+        <v>22255</v>
       </c>
       <c r="F100">
-        <v>0.002859853208065033</v>
+        <v>0.01430209202226251</v>
       </c>
       <c r="G100">
-        <v>15433</v>
+        <v>16803</v>
       </c>
       <c r="H100">
-        <v>34012</v>
+        <v>35382</v>
       </c>
       <c r="I100">
         <v>18579</v>
@@ -3387,25 +3387,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.013214111328125</v>
+        <v>0.03173430205788463</v>
       </c>
       <c r="C101">
-        <v>237022</v>
+        <v>116032</v>
       </c>
       <c r="D101">
-        <v>323627</v>
+        <v>333630</v>
       </c>
       <c r="E101">
-        <v>86605</v>
+        <v>217598</v>
       </c>
       <c r="F101">
-        <v>0.002019647508859634</v>
+        <v>0.01628909597638994</v>
       </c>
       <c r="G101">
-        <v>15657</v>
+        <v>16547</v>
       </c>
       <c r="H101">
-        <v>34382</v>
+        <v>35272</v>
       </c>
       <c r="I101">
         <v>18725</v>
